--- a/Code/Results/Cases/Case_0_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_163/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.408880565704095</v>
+        <v>0.4180193265783032</v>
       </c>
       <c r="D2">
-        <v>0.02672630263842279</v>
+        <v>0.06747806412783142</v>
       </c>
       <c r="E2">
-        <v>0.1829354825988005</v>
+        <v>0.1765666249016249</v>
       </c>
       <c r="F2">
-        <v>1.156161675871559</v>
+        <v>1.54402593499843</v>
       </c>
       <c r="G2">
-        <v>1.120374402160323</v>
+        <v>1.454626884411056</v>
       </c>
       <c r="H2">
-        <v>0.6898878688085119</v>
+        <v>1.314481704399967</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.20947935460913</v>
+        <v>2.225591597444293</v>
       </c>
       <c r="L2">
-        <v>0.1686933314499441</v>
+        <v>0.1540696821842005</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3642969504074927</v>
+        <v>0.4095275913296064</v>
       </c>
       <c r="D3">
-        <v>0.02906105840810547</v>
+        <v>0.06844969275959478</v>
       </c>
       <c r="E3">
-        <v>0.1624246852570437</v>
+        <v>0.1725842348115449</v>
       </c>
       <c r="F3">
-        <v>1.06709875551563</v>
+        <v>1.540913468417642</v>
       </c>
       <c r="G3">
-        <v>1.034624845019479</v>
+        <v>1.453202398683601</v>
       </c>
       <c r="H3">
-        <v>0.6623232589912362</v>
+        <v>1.32210160019666</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.51080692063357</v>
+        <v>2.028806800577968</v>
       </c>
       <c r="L3">
-        <v>0.1493077217072596</v>
+        <v>0.150242226801268</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3376397788120755</v>
+        <v>0.4045550471834929</v>
       </c>
       <c r="D4">
-        <v>0.03057010935669169</v>
+        <v>0.06907795365981784</v>
       </c>
       <c r="E4">
-        <v>0.1501616347558716</v>
+        <v>0.1702440526323663</v>
       </c>
       <c r="F4">
-        <v>1.016366297607689</v>
+        <v>1.540311051451809</v>
       </c>
       <c r="G4">
-        <v>0.9863200194271968</v>
+        <v>1.453684529586752</v>
       </c>
       <c r="H4">
-        <v>0.6477316961665309</v>
+        <v>1.32770002083565</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.085723728379094</v>
+        <v>1.908458429628411</v>
       </c>
       <c r="L4">
-        <v>0.1377181813435442</v>
+        <v>0.1479862963206315</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3269382444310907</v>
+        <v>0.4025892243720648</v>
       </c>
       <c r="D5">
-        <v>0.03120295528518646</v>
+        <v>0.06934193376535625</v>
       </c>
       <c r="E5">
-        <v>0.145238526147633</v>
+        <v>0.1693167216340576</v>
       </c>
       <c r="F5">
-        <v>0.9965996900012613</v>
+        <v>1.540392972027448</v>
       </c>
       <c r="G5">
-        <v>0.9676314947981552</v>
+        <v>1.45422015581407</v>
       </c>
       <c r="H5">
-        <v>0.6423275699485345</v>
+        <v>1.33021193112647</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.913309857917511</v>
+        <v>1.85953615494185</v>
       </c>
       <c r="L5">
-        <v>0.1330654229060784</v>
+        <v>0.1470905554261748</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3251704930257802</v>
+        <v>0.4022664517434293</v>
       </c>
       <c r="D6">
-        <v>0.03130909020692485</v>
+        <v>0.0693862479642231</v>
       </c>
       <c r="E6">
-        <v>0.1444252804936745</v>
+        <v>0.1691643254512059</v>
       </c>
       <c r="F6">
-        <v>0.9933698586154094</v>
+        <v>1.54042630119767</v>
       </c>
       <c r="G6">
-        <v>0.9645857638915487</v>
+        <v>1.454329521300849</v>
       </c>
       <c r="H6">
-        <v>0.6414617217148475</v>
+        <v>1.330642931416179</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.884724937035742</v>
+        <v>1.851419949629076</v>
       </c>
       <c r="L6">
-        <v>0.1322968275598129</v>
+        <v>0.1469432388523515</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.337494824186507</v>
+        <v>0.4045282905583463</v>
       </c>
       <c r="D7">
-        <v>0.03057857302939126</v>
+        <v>0.06908148157330807</v>
       </c>
       <c r="E7">
-        <v>0.150094950920149</v>
+        <v>0.1702314399097986</v>
       </c>
       <c r="F7">
-        <v>1.016096154009347</v>
+        <v>1.540310832802177</v>
       </c>
       <c r="G7">
-        <v>0.9860640683442057</v>
+        <v>1.453690382691377</v>
       </c>
       <c r="H7">
-        <v>0.6476566758057203</v>
+        <v>1.32773296506079</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.083395425905621</v>
+        <v>1.907798157581226</v>
       </c>
       <c r="L7">
-        <v>0.1376551598639111</v>
+        <v>0.1479741207496232</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3933473480144585</v>
+        <v>0.4150411593057868</v>
       </c>
       <c r="D8">
-        <v>0.0275149595970241</v>
+        <v>0.06780650291752721</v>
       </c>
       <c r="E8">
-        <v>0.1757890854881197</v>
+        <v>0.175171639472957</v>
       </c>
       <c r="F8">
-        <v>1.124577985623162</v>
+        <v>1.542680139536415</v>
       </c>
       <c r="G8">
-        <v>1.089845199037001</v>
+        <v>1.453852903271937</v>
       </c>
       <c r="H8">
-        <v>0.6798712538164295</v>
+        <v>1.316917675562138</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.967658869804779</v>
+        <v>2.157641080937026</v>
       </c>
       <c r="L8">
-        <v>0.1619386605111544</v>
+        <v>0.1527303717327655</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5095145900427269</v>
+        <v>0.4375821139846607</v>
       </c>
       <c r="D9">
-        <v>0.02216276334781497</v>
+        <v>0.06555792139741179</v>
       </c>
       <c r="E9">
-        <v>0.2292490952690116</v>
+        <v>0.1856977882698132</v>
       </c>
       <c r="F9">
-        <v>1.372997660113029</v>
+        <v>1.557787587333507</v>
       </c>
       <c r="G9">
-        <v>1.332672386286418</v>
+        <v>1.465030421495015</v>
       </c>
       <c r="H9">
-        <v>0.763788125435525</v>
+        <v>1.303042935183726</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.74131895491729</v>
+        <v>2.651389842978347</v>
       </c>
       <c r="L9">
-        <v>0.2124822274762437</v>
+        <v>0.1628097635934438</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6004000541968537</v>
+        <v>0.4553326513109539</v>
       </c>
       <c r="D10">
-        <v>0.01872217610543281</v>
+        <v>0.06405972410548344</v>
       </c>
       <c r="E10">
-        <v>0.2711075013746225</v>
+        <v>0.1939507371160758</v>
       </c>
       <c r="F10">
-        <v>1.584031412793237</v>
+        <v>1.575376121500327</v>
       </c>
       <c r="G10">
-        <v>1.542604453089524</v>
+        <v>1.47999532905439</v>
       </c>
       <c r="H10">
-        <v>0.8415804145122081</v>
+        <v>1.29737151372251</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.082224802654594</v>
+        <v>3.016529332124094</v>
       </c>
       <c r="L10">
-        <v>0.252087508436631</v>
+        <v>0.1706823420872041</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6433342265600004</v>
+        <v>0.4636698452827943</v>
       </c>
       <c r="D11">
-        <v>0.01728896457813889</v>
+        <v>0.06341166844713086</v>
       </c>
       <c r="E11">
-        <v>0.2908940187005697</v>
+        <v>0.197819881659079</v>
       </c>
       <c r="F11">
-        <v>1.687980033886518</v>
+        <v>1.584811108444555</v>
       </c>
       <c r="G11">
-        <v>1.646914353203954</v>
+        <v>1.488298588482905</v>
       </c>
       <c r="H11">
-        <v>0.8813806247688944</v>
+        <v>1.295784689372937</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.703984662644302</v>
+        <v>3.183175130614529</v>
       </c>
       <c r="L11">
-        <v>0.2708204594565444</v>
+        <v>0.1743671849165338</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6598581569855355</v>
+        <v>0.4668649128249456</v>
       </c>
       <c r="D12">
-        <v>0.01676778974931104</v>
+        <v>0.06317109372472274</v>
       </c>
       <c r="E12">
-        <v>0.2985115370407456</v>
+        <v>0.1993016740729558</v>
       </c>
       <c r="F12">
-        <v>1.728655404429162</v>
+        <v>1.588592015970292</v>
       </c>
       <c r="G12">
-        <v>1.687871210482001</v>
+        <v>1.491660205753647</v>
       </c>
       <c r="H12">
-        <v>0.8971744792588936</v>
+        <v>1.295327522451771</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.941462830560795</v>
+        <v>3.246358148612956</v>
       </c>
       <c r="L12">
-        <v>0.2780344920594331</v>
+        <v>0.1757775727584772</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6562869712251711</v>
+        <v>0.46617510628829</v>
       </c>
       <c r="D13">
-        <v>0.01687902969506716</v>
+        <v>0.06322269073042008</v>
       </c>
       <c r="E13">
-        <v>0.2968651100653972</v>
+        <v>0.1989818019746394</v>
       </c>
       <c r="F13">
-        <v>1.719833923311867</v>
+        <v>1.587768445042713</v>
       </c>
       <c r="G13">
-        <v>1.678982309366575</v>
+        <v>1.490926517996542</v>
       </c>
       <c r="H13">
-        <v>0.8937393298333518</v>
+        <v>1.295419574434135</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.890221439404513</v>
+        <v>3.232747092081922</v>
       </c>
       <c r="L13">
-        <v>0.2764751710037103</v>
+        <v>0.1754731505629934</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6446881049590161</v>
+        <v>0.4639319434819811</v>
       </c>
       <c r="D14">
-        <v>0.0172456389256439</v>
+        <v>0.06339177933098128</v>
       </c>
       <c r="E14">
-        <v>0.2915181054747791</v>
+        <v>0.197941455610767</v>
       </c>
       <c r="F14">
-        <v>1.691299067679807</v>
+        <v>1.58511798479897</v>
       </c>
       <c r="G14">
-        <v>1.650253516179987</v>
+        <v>1.488570781558622</v>
       </c>
       <c r="H14">
-        <v>0.8826649697250275</v>
+        <v>1.295744192146685</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.723479325042206</v>
+        <v>3.188371674982989</v>
       </c>
       <c r="L14">
-        <v>0.2714114443309654</v>
+        <v>0.1744829166687225</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6376192516910066</v>
+        <v>0.4625628908069928</v>
       </c>
       <c r="D15">
-        <v>0.01747308839784267</v>
+        <v>0.06349598044508298</v>
       </c>
       <c r="E15">
-        <v>0.2882597288051088</v>
+        <v>0.1973063828616546</v>
       </c>
       <c r="F15">
-        <v>1.673996964995993</v>
+        <v>1.583521656318638</v>
       </c>
       <c r="G15">
-        <v>1.632852127967396</v>
+        <v>1.487156198722801</v>
       </c>
       <c r="H15">
-        <v>0.8759784972238549</v>
+        <v>1.295961775004542</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.621620304756163</v>
+        <v>3.161200591146724</v>
       </c>
       <c r="L15">
-        <v>0.2683259818036134</v>
+        <v>0.1738783293330215</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5976292540027259</v>
+        <v>0.4547930948323824</v>
       </c>
       <c r="D16">
-        <v>0.01881870534537278</v>
+        <v>0.06410275108528296</v>
       </c>
       <c r="E16">
-        <v>0.2698308523336763</v>
+        <v>0.1937002002543409</v>
       </c>
       <c r="F16">
-        <v>1.577412024335644</v>
+        <v>1.574788537657057</v>
       </c>
       <c r="G16">
-        <v>1.535980506865059</v>
+        <v>1.479482982392341</v>
       </c>
       <c r="H16">
-        <v>0.8390754048587326</v>
+        <v>1.297495279062474</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.041856143409291</v>
+        <v>3.005649536047031</v>
       </c>
       <c r="L16">
-        <v>0.2508791025476143</v>
+        <v>0.1704436236088043</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5735287439015337</v>
+        <v>0.4500939363948646</v>
       </c>
       <c r="D17">
-        <v>0.01967969078077125</v>
+        <v>0.06448357123230686</v>
       </c>
       <c r="E17">
-        <v>0.2587279649537706</v>
+        <v>0.191517419586809</v>
       </c>
       <c r="F17">
-        <v>1.520309508618979</v>
+        <v>1.569799644523656</v>
       </c>
       <c r="G17">
-        <v>1.478936791999985</v>
+        <v>1.475160401881283</v>
       </c>
       <c r="H17">
-        <v>0.8176254765629665</v>
+        <v>1.298691049733549</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.689432021971299</v>
+        <v>2.910362747974489</v>
       </c>
       <c r="L17">
-        <v>0.2403710307589648</v>
+        <v>0.1683631571192024</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.559813927032593</v>
+        <v>0.4474157880852658</v>
       </c>
       <c r="D18">
-        <v>0.02018714663189236</v>
+        <v>0.0647057593976097</v>
       </c>
       <c r="E18">
-        <v>0.2524108036065797</v>
+        <v>0.190272743644627</v>
       </c>
       <c r="F18">
-        <v>1.488202398319387</v>
+        <v>1.567065014197624</v>
       </c>
       <c r="G18">
-        <v>1.446943279128618</v>
+        <v>1.472814808108126</v>
       </c>
       <c r="H18">
-        <v>0.8056974147804681</v>
+        <v>1.299472248509602</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.487812588723727</v>
+        <v>2.855607323433333</v>
       </c>
       <c r="L18">
-        <v>0.2343933253034294</v>
+        <v>0.167176268450433</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5551945505865774</v>
+        <v>0.4465132457832794</v>
       </c>
       <c r="D19">
-        <v>0.0203609929605264</v>
+        <v>0.0647815291447511</v>
       </c>
       <c r="E19">
-        <v>0.2502832591037247</v>
+        <v>0.1898531694184058</v>
       </c>
       <c r="F19">
-        <v>1.477453224673667</v>
+        <v>1.566162218335762</v>
       </c>
       <c r="G19">
-        <v>1.436245687783838</v>
+        <v>1.472044716193608</v>
       </c>
       <c r="H19">
-        <v>0.8017266000748577</v>
+        <v>1.299752766663971</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.419724592061527</v>
+        <v>2.83707684304045</v>
       </c>
       <c r="L19">
-        <v>0.2323802687137828</v>
+        <v>0.1667760775362126</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.5760788012134412</v>
+        <v>0.4505916136081964</v>
       </c>
       <c r="D20">
-        <v>0.01958675332147486</v>
+        <v>0.06444270610668035</v>
       </c>
       <c r="E20">
-        <v>0.259902632260939</v>
+        <v>0.191748661527285</v>
       </c>
       <c r="F20">
-        <v>1.526310764176927</v>
+        <v>1.570316750684384</v>
       </c>
       <c r="G20">
-        <v>1.484923391374821</v>
+        <v>1.475605975761113</v>
       </c>
       <c r="H20">
-        <v>0.8198658909073799</v>
+        <v>1.298554082349938</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.726833511118684</v>
+        <v>2.920500910074736</v>
       </c>
       <c r="L20">
-        <v>0.2414826577399793</v>
+        <v>0.1685836173138995</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6480874416590154</v>
+        <v>0.4645897829363435</v>
       </c>
       <c r="D21">
-        <v>0.01713734923663424</v>
+        <v>0.06334198270161551</v>
       </c>
       <c r="E21">
-        <v>0.2930851104054</v>
+        <v>0.1982465782331815</v>
       </c>
       <c r="F21">
-        <v>1.699643365694556</v>
+        <v>1.585890826753385</v>
       </c>
       <c r="G21">
-        <v>1.658650671847681</v>
+        <v>1.489256801296079</v>
       </c>
       <c r="H21">
-        <v>0.8858974108019595</v>
+        <v>1.295644935935172</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.772397475803587</v>
+        <v>3.201403697406647</v>
       </c>
       <c r="L21">
-        <v>0.2728953698557888</v>
+        <v>0.1747733637791669</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6967189442256938</v>
+        <v>0.4739597228576145</v>
       </c>
       <c r="D22">
-        <v>0.01566367464149643</v>
+        <v>0.06265075643934281</v>
       </c>
       <c r="E22">
-        <v>0.3155092255750205</v>
+        <v>0.2025903392651642</v>
       </c>
       <c r="F22">
-        <v>1.820671477811345</v>
+        <v>1.597283140258753</v>
       </c>
       <c r="G22">
-        <v>1.78079194743043</v>
+        <v>1.499446375236147</v>
       </c>
       <c r="H22">
-        <v>0.9333134830162635</v>
+        <v>1.294581835243605</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.467765117494366</v>
+        <v>3.385443825962966</v>
       </c>
       <c r="L22">
-        <v>0.2941362618378065</v>
+        <v>0.1789063161437667</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6706061491582034</v>
+        <v>0.4689384832013559</v>
       </c>
       <c r="D23">
-        <v>0.01643759497765984</v>
+        <v>0.06301709494217178</v>
       </c>
       <c r="E23">
-        <v>0.303467074553943</v>
+        <v>0.2002630773779259</v>
       </c>
       <c r="F23">
-        <v>1.755305545759583</v>
+        <v>1.591091160133828</v>
       </c>
       <c r="G23">
-        <v>1.714745986503004</v>
+        <v>1.49389123068903</v>
       </c>
       <c r="H23">
-        <v>0.9075844156422477</v>
+        <v>1.295072231794649</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.095409314881351</v>
+        <v>3.287176613206213</v>
       </c>
       <c r="L23">
-        <v>0.2827281955377288</v>
+        <v>0.1766924247657613</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5749254842034475</v>
+        <v>0.4503665406828077</v>
       </c>
       <c r="D24">
-        <v>0.01962873171396495</v>
+        <v>0.06446117110906258</v>
       </c>
       <c r="E24">
-        <v>0.2593713607856785</v>
+        <v>0.1916440851790568</v>
       </c>
       <c r="F24">
-        <v>1.523595360519479</v>
+        <v>1.570082551151202</v>
       </c>
       <c r="G24">
-        <v>1.48221436676431</v>
+        <v>1.475404097423251</v>
       </c>
       <c r="H24">
-        <v>0.818851748361709</v>
+        <v>1.298615713411834</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.70992122706798</v>
+        <v>2.915917365314613</v>
       </c>
       <c r="L24">
-        <v>0.2409798945885342</v>
+        <v>0.1684839186155358</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4772340509473452</v>
+        <v>0.4312764409112901</v>
       </c>
       <c r="D25">
-        <v>0.02353185519609724</v>
+        <v>0.06613924157371365</v>
       </c>
       <c r="E25">
-        <v>0.2143896388141684</v>
+        <v>0.1827595815844916</v>
       </c>
       <c r="F25">
-        <v>1.301322023849167</v>
+        <v>1.552569179461997</v>
       </c>
       <c r="G25">
-        <v>1.262045320551437</v>
+        <v>1.460830401108353</v>
       </c>
       <c r="H25">
-        <v>0.7385297850314316</v>
+        <v>1.306005983682951</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.255943258086972</v>
+        <v>2.517404092411255</v>
       </c>
       <c r="L25">
-        <v>0.1984296833928596</v>
+        <v>0.1600015945912929</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_163/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4180193265783032</v>
+        <v>0.408880565704294</v>
       </c>
       <c r="D2">
-        <v>0.06747806412783142</v>
+        <v>0.02672630263843168</v>
       </c>
       <c r="E2">
-        <v>0.1765666249016249</v>
+        <v>0.1829354825987792</v>
       </c>
       <c r="F2">
-        <v>1.54402593499843</v>
+        <v>1.156161675871573</v>
       </c>
       <c r="G2">
-        <v>1.454626884411056</v>
+        <v>1.120374402160337</v>
       </c>
       <c r="H2">
-        <v>1.314481704399967</v>
+        <v>0.6898878688084125</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.225591597444293</v>
+        <v>5.209479354609073</v>
       </c>
       <c r="L2">
-        <v>0.1540696821842005</v>
+        <v>0.1686933314499655</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4095275913296064</v>
+        <v>0.3642969504076632</v>
       </c>
       <c r="D3">
-        <v>0.06844969275959478</v>
+        <v>0.02906105840810014</v>
       </c>
       <c r="E3">
-        <v>0.1725842348115449</v>
+        <v>0.1624246852570579</v>
       </c>
       <c r="F3">
-        <v>1.540913468417642</v>
+        <v>1.06709875551563</v>
       </c>
       <c r="G3">
-        <v>1.453202398683601</v>
+        <v>1.034624845019437</v>
       </c>
       <c r="H3">
-        <v>1.32210160019666</v>
+        <v>0.6623232589911225</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.028806800577968</v>
+        <v>4.510806920633684</v>
       </c>
       <c r="L3">
-        <v>0.150242226801268</v>
+        <v>0.149307721707153</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4045550471834929</v>
+        <v>0.3376397788120755</v>
       </c>
       <c r="D4">
-        <v>0.06907795365981784</v>
+        <v>0.03057010935669346</v>
       </c>
       <c r="E4">
-        <v>0.1702440526323663</v>
+        <v>0.1501616347558326</v>
       </c>
       <c r="F4">
-        <v>1.540311051451809</v>
+        <v>1.016366297607689</v>
       </c>
       <c r="G4">
-        <v>1.453684529586752</v>
+        <v>0.9863200194271684</v>
       </c>
       <c r="H4">
-        <v>1.32770002083565</v>
+        <v>0.6477316961666446</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.908458429628411</v>
+        <v>4.085723728379151</v>
       </c>
       <c r="L4">
-        <v>0.1479862963206315</v>
+        <v>0.1377181813436152</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4025892243720648</v>
+        <v>0.3269382444312328</v>
       </c>
       <c r="D5">
-        <v>0.06934193376535625</v>
+        <v>0.031202955285071</v>
       </c>
       <c r="E5">
-        <v>0.1693167216340576</v>
+        <v>0.1452385261476294</v>
       </c>
       <c r="F5">
-        <v>1.540392972027448</v>
+        <v>0.996599690001247</v>
       </c>
       <c r="G5">
-        <v>1.45422015581407</v>
+        <v>0.967631494798141</v>
       </c>
       <c r="H5">
-        <v>1.33021193112647</v>
+        <v>0.6423275699485487</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.85953615494185</v>
+        <v>3.913309857917397</v>
       </c>
       <c r="L5">
-        <v>0.1470905554261748</v>
+        <v>0.1330654229060784</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4022664517434293</v>
+        <v>0.3251704930255812</v>
       </c>
       <c r="D6">
-        <v>0.0693862479642231</v>
+        <v>0.03130909020711137</v>
       </c>
       <c r="E6">
-        <v>0.1691643254512059</v>
+        <v>0.144425280493639</v>
       </c>
       <c r="F6">
-        <v>1.54042630119767</v>
+        <v>0.9933698586154236</v>
       </c>
       <c r="G6">
-        <v>1.454329521300849</v>
+        <v>0.9645857638916056</v>
       </c>
       <c r="H6">
-        <v>1.330642931416179</v>
+        <v>0.6414617217148333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.851419949629076</v>
+        <v>3.884724937035685</v>
       </c>
       <c r="L6">
-        <v>0.1469432388523515</v>
+        <v>0.1322968275597987</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4045282905583463</v>
+        <v>0.3374948241865638</v>
       </c>
       <c r="D7">
-        <v>0.06908148157330807</v>
+        <v>0.03057857302938416</v>
       </c>
       <c r="E7">
-        <v>0.1702314399097986</v>
+        <v>0.1500949509201739</v>
       </c>
       <c r="F7">
-        <v>1.540310832802177</v>
+        <v>1.016096154009375</v>
       </c>
       <c r="G7">
-        <v>1.453690382691377</v>
+        <v>0.9860640683442199</v>
       </c>
       <c r="H7">
-        <v>1.32773296506079</v>
+        <v>0.6476566758057203</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.907798157581226</v>
+        <v>4.083395425905621</v>
       </c>
       <c r="L7">
-        <v>0.1479741207496232</v>
+        <v>0.1376551598639466</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4150411593057868</v>
+        <v>0.3933473480143732</v>
       </c>
       <c r="D8">
-        <v>0.06780650291752721</v>
+        <v>0.02751495959715378</v>
       </c>
       <c r="E8">
-        <v>0.175171639472957</v>
+        <v>0.1757890854881126</v>
       </c>
       <c r="F8">
-        <v>1.542680139536415</v>
+        <v>1.12457798562312</v>
       </c>
       <c r="G8">
-        <v>1.453852903271937</v>
+        <v>1.089845199037057</v>
       </c>
       <c r="H8">
-        <v>1.316917675562138</v>
+        <v>0.6798712538164295</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.157641080937026</v>
+        <v>4.967658869804609</v>
       </c>
       <c r="L8">
-        <v>0.1527303717327655</v>
+        <v>0.1619386605111117</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4375821139846607</v>
+        <v>0.509514590042329</v>
       </c>
       <c r="D9">
-        <v>0.06555792139741179</v>
+        <v>0.02216276334749701</v>
       </c>
       <c r="E9">
-        <v>0.1856977882698132</v>
+        <v>0.2292490952689974</v>
       </c>
       <c r="F9">
-        <v>1.557787587333507</v>
+        <v>1.372997660113043</v>
       </c>
       <c r="G9">
-        <v>1.465030421495015</v>
+        <v>1.332672386286475</v>
       </c>
       <c r="H9">
-        <v>1.303042935183726</v>
+        <v>0.7637881254356387</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.651389842978347</v>
+        <v>6.741318954917404</v>
       </c>
       <c r="L9">
-        <v>0.1628097635934438</v>
+        <v>0.2124822274763005</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4553326513109539</v>
+        <v>0.600400054196399</v>
       </c>
       <c r="D10">
-        <v>0.06405972410548344</v>
+        <v>0.01872217610555538</v>
       </c>
       <c r="E10">
-        <v>0.1939507371160758</v>
+        <v>0.2711075013746225</v>
       </c>
       <c r="F10">
-        <v>1.575376121500327</v>
+        <v>1.584031412793223</v>
       </c>
       <c r="G10">
-        <v>1.47999532905439</v>
+        <v>1.542604453089496</v>
       </c>
       <c r="H10">
-        <v>1.29737151372251</v>
+        <v>0.8415804145122081</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.016529332124094</v>
+        <v>8.082224802654594</v>
       </c>
       <c r="L10">
-        <v>0.1706823420872041</v>
+        <v>0.2520875084367304</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4636698452827943</v>
+        <v>0.6433342265600004</v>
       </c>
       <c r="D11">
-        <v>0.06341166844713086</v>
+        <v>0.01728896457812823</v>
       </c>
       <c r="E11">
-        <v>0.197819881659079</v>
+        <v>0.2908940187005626</v>
       </c>
       <c r="F11">
-        <v>1.584811108444555</v>
+        <v>1.687980033886532</v>
       </c>
       <c r="G11">
-        <v>1.488298588482905</v>
+        <v>1.646914353203897</v>
       </c>
       <c r="H11">
-        <v>1.295784689372937</v>
+        <v>0.8813806247688944</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.183175130614529</v>
+        <v>8.703984662644302</v>
       </c>
       <c r="L11">
-        <v>0.1743671849165338</v>
+        <v>0.2708204594565871</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4668649128249456</v>
+        <v>0.6598581569855639</v>
       </c>
       <c r="D12">
-        <v>0.06317109372472274</v>
+        <v>0.01676778974947268</v>
       </c>
       <c r="E12">
-        <v>0.1993016740729558</v>
+        <v>0.2985115370407527</v>
       </c>
       <c r="F12">
-        <v>1.588592015970292</v>
+        <v>1.728655404429162</v>
       </c>
       <c r="G12">
-        <v>1.491660205753647</v>
+        <v>1.687871210481944</v>
       </c>
       <c r="H12">
-        <v>1.295327522451771</v>
+        <v>0.8971744792587799</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.246358148612956</v>
+        <v>8.941462830560909</v>
       </c>
       <c r="L12">
-        <v>0.1757775727584772</v>
+        <v>0.2780344920594615</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.46617510628829</v>
+        <v>0.6562869712251711</v>
       </c>
       <c r="D13">
-        <v>0.06322269073042008</v>
+        <v>0.01687902969496946</v>
       </c>
       <c r="E13">
-        <v>0.1989818019746394</v>
+        <v>0.2968651100654114</v>
       </c>
       <c r="F13">
-        <v>1.587768445042713</v>
+        <v>1.719833923311882</v>
       </c>
       <c r="G13">
-        <v>1.490926517996542</v>
+        <v>1.678982309366631</v>
       </c>
       <c r="H13">
-        <v>1.295419574434135</v>
+        <v>0.8937393298333518</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.232747092081922</v>
+        <v>8.890221439404286</v>
       </c>
       <c r="L13">
-        <v>0.1754731505629934</v>
+        <v>0.2764751710036251</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4639319434819811</v>
+        <v>0.6446881049590729</v>
       </c>
       <c r="D14">
-        <v>0.06339177933098128</v>
+        <v>0.01724563892555331</v>
       </c>
       <c r="E14">
-        <v>0.197941455610767</v>
+        <v>0.2915181054747791</v>
       </c>
       <c r="F14">
-        <v>1.58511798479897</v>
+        <v>1.691299067679793</v>
       </c>
       <c r="G14">
-        <v>1.488570781558622</v>
+        <v>1.650253516179987</v>
       </c>
       <c r="H14">
-        <v>1.295744192146685</v>
+        <v>0.8826649697250275</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.188371674982989</v>
+        <v>8.723479325042035</v>
       </c>
       <c r="L14">
-        <v>0.1744829166687225</v>
+        <v>0.2714114443309512</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4625628908069928</v>
+        <v>0.6376192516905235</v>
       </c>
       <c r="D15">
-        <v>0.06349598044508298</v>
+        <v>0.0174730883977503</v>
       </c>
       <c r="E15">
-        <v>0.1973063828616546</v>
+        <v>0.2882597288050732</v>
       </c>
       <c r="F15">
-        <v>1.583521656318638</v>
+        <v>1.673996964995993</v>
       </c>
       <c r="G15">
-        <v>1.487156198722801</v>
+        <v>1.632852127967368</v>
       </c>
       <c r="H15">
-        <v>1.295961775004542</v>
+        <v>0.8759784972238549</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.161200591146724</v>
+        <v>8.621620304756334</v>
       </c>
       <c r="L15">
-        <v>0.1738783293330215</v>
+        <v>0.2683259818036845</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4547930948323824</v>
+        <v>0.5976292540028112</v>
       </c>
       <c r="D16">
-        <v>0.06410275108528296</v>
+        <v>0.018818705345371</v>
       </c>
       <c r="E16">
-        <v>0.1937002002543409</v>
+        <v>0.2698308523337332</v>
       </c>
       <c r="F16">
-        <v>1.574788537657057</v>
+        <v>1.577412024335644</v>
       </c>
       <c r="G16">
-        <v>1.479482982392341</v>
+        <v>1.535980506865087</v>
       </c>
       <c r="H16">
-        <v>1.297495279062474</v>
+        <v>0.8390754048587326</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.005649536047031</v>
+        <v>8.041856143409291</v>
       </c>
       <c r="L16">
-        <v>0.1704436236088043</v>
+        <v>0.2508791025477279</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4500939363948646</v>
+        <v>0.5735287439013348</v>
       </c>
       <c r="D17">
-        <v>0.06448357123230686</v>
+        <v>0.01967969078088139</v>
       </c>
       <c r="E17">
-        <v>0.191517419586809</v>
+        <v>0.2587279649537493</v>
       </c>
       <c r="F17">
-        <v>1.569799644523656</v>
+        <v>1.520309508619007</v>
       </c>
       <c r="G17">
-        <v>1.475160401881283</v>
+        <v>1.478936791999985</v>
       </c>
       <c r="H17">
-        <v>1.298691049733549</v>
+        <v>0.8176254765628812</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.910362747974489</v>
+        <v>7.689432021971356</v>
       </c>
       <c r="L17">
-        <v>0.1683631571192024</v>
+        <v>0.2403710307590075</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4474157880852658</v>
+        <v>0.5598139270325646</v>
       </c>
       <c r="D18">
-        <v>0.0647057593976097</v>
+        <v>0.02018714663206111</v>
       </c>
       <c r="E18">
-        <v>0.190272743644627</v>
+        <v>0.252410803606594</v>
       </c>
       <c r="F18">
-        <v>1.567065014197624</v>
+        <v>1.488202398319373</v>
       </c>
       <c r="G18">
-        <v>1.472814808108126</v>
+        <v>1.446943279128618</v>
       </c>
       <c r="H18">
-        <v>1.299472248509602</v>
+        <v>0.8056974147804681</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.855607323433333</v>
+        <v>7.487812588723727</v>
       </c>
       <c r="L18">
-        <v>0.167176268450433</v>
+        <v>0.2343933253035431</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4465132457832794</v>
+        <v>0.5551945505862079</v>
       </c>
       <c r="D19">
-        <v>0.0647815291447511</v>
+        <v>0.02036099296060456</v>
       </c>
       <c r="E19">
-        <v>0.1898531694184058</v>
+        <v>0.2502832591036963</v>
       </c>
       <c r="F19">
-        <v>1.566162218335762</v>
+        <v>1.477453224673681</v>
       </c>
       <c r="G19">
-        <v>1.472044716193608</v>
+        <v>1.43624568778381</v>
       </c>
       <c r="H19">
-        <v>1.299752766663971</v>
+        <v>0.8017266000748577</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.83707684304045</v>
+        <v>7.419724592061584</v>
       </c>
       <c r="L19">
-        <v>0.1667760775362126</v>
+        <v>0.232380268713726</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4505916136081964</v>
+        <v>0.5760788012132707</v>
       </c>
       <c r="D20">
-        <v>0.06444270610668035</v>
+        <v>0.01958675332147664</v>
       </c>
       <c r="E20">
-        <v>0.191748661527285</v>
+        <v>0.2599026322609674</v>
       </c>
       <c r="F20">
-        <v>1.570316750684384</v>
+        <v>1.526310764176927</v>
       </c>
       <c r="G20">
-        <v>1.475605975761113</v>
+        <v>1.484923391374707</v>
       </c>
       <c r="H20">
-        <v>1.298554082349938</v>
+        <v>0.8198658909074084</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.920500910074736</v>
+        <v>7.726833511118571</v>
       </c>
       <c r="L20">
-        <v>0.1685836173138995</v>
+        <v>0.2414826577400078</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4645897829363435</v>
+        <v>0.6480874416591291</v>
       </c>
       <c r="D21">
-        <v>0.06334198270161551</v>
+        <v>0.01713734923662535</v>
       </c>
       <c r="E21">
-        <v>0.1982465782331815</v>
+        <v>0.2930851104053644</v>
       </c>
       <c r="F21">
-        <v>1.585890826753385</v>
+        <v>1.699643365694556</v>
       </c>
       <c r="G21">
-        <v>1.489256801296079</v>
+        <v>1.65865067184771</v>
       </c>
       <c r="H21">
-        <v>1.295644935935172</v>
+        <v>0.8858974108018458</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.201403697406647</v>
+        <v>8.772397475803757</v>
       </c>
       <c r="L21">
-        <v>0.1747733637791669</v>
+        <v>0.272895369855803</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4739597228576145</v>
+        <v>0.6967189442259212</v>
       </c>
       <c r="D22">
-        <v>0.06265075643934281</v>
+        <v>0.01566367464153018</v>
       </c>
       <c r="E22">
-        <v>0.2025903392651642</v>
+        <v>0.3155092255749921</v>
       </c>
       <c r="F22">
-        <v>1.597283140258753</v>
+        <v>1.820671477811345</v>
       </c>
       <c r="G22">
-        <v>1.499446375236147</v>
+        <v>1.78079194743043</v>
       </c>
       <c r="H22">
-        <v>1.294581835243605</v>
+        <v>0.9333134830162351</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.385443825962966</v>
+        <v>9.467765117494309</v>
       </c>
       <c r="L22">
-        <v>0.1789063161437667</v>
+        <v>0.2941362618378491</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4689384832013559</v>
+        <v>0.6706061491578339</v>
       </c>
       <c r="D23">
-        <v>0.06301709494217178</v>
+        <v>0.01643759497766339</v>
       </c>
       <c r="E23">
-        <v>0.2002630773779259</v>
+        <v>0.3034670745539501</v>
       </c>
       <c r="F23">
-        <v>1.591091160133828</v>
+        <v>1.755305545759555</v>
       </c>
       <c r="G23">
-        <v>1.49389123068903</v>
+        <v>1.714745986503033</v>
       </c>
       <c r="H23">
-        <v>1.295072231794649</v>
+        <v>0.9075844156422193</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.287176613206213</v>
+        <v>9.095409314881408</v>
       </c>
       <c r="L23">
-        <v>0.1766924247657613</v>
+        <v>0.2827281955376861</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4503665406828077</v>
+        <v>0.5749254842036464</v>
       </c>
       <c r="D24">
-        <v>0.06446117110906258</v>
+        <v>0.01962873171427937</v>
       </c>
       <c r="E24">
-        <v>0.1916440851790568</v>
+        <v>0.2593713607857069</v>
       </c>
       <c r="F24">
-        <v>1.570082551151202</v>
+        <v>1.523595360519465</v>
       </c>
       <c r="G24">
-        <v>1.475404097423251</v>
+        <v>1.482214366764225</v>
       </c>
       <c r="H24">
-        <v>1.298615713411834</v>
+        <v>0.8188517483618227</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.915917365314613</v>
+        <v>7.70992122706798</v>
       </c>
       <c r="L24">
-        <v>0.1684839186155358</v>
+        <v>0.2409798945884205</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4312764409112901</v>
+        <v>0.4772340509473167</v>
       </c>
       <c r="D25">
-        <v>0.06613924157371365</v>
+        <v>0.02353185519617718</v>
       </c>
       <c r="E25">
-        <v>0.1827595815844916</v>
+        <v>0.2143896388141684</v>
       </c>
       <c r="F25">
-        <v>1.552569179461997</v>
+        <v>1.301322023849167</v>
       </c>
       <c r="G25">
-        <v>1.460830401108353</v>
+        <v>1.262045320551522</v>
       </c>
       <c r="H25">
-        <v>1.306005983682951</v>
+        <v>0.7385297850315737</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.517404092411255</v>
+        <v>6.255943258086972</v>
       </c>
       <c r="L25">
-        <v>0.1600015945912929</v>
+        <v>0.1984296833929164</v>
       </c>
       <c r="M25">
         <v>0</v>
